--- a/Generated cooking sessions.xlsx
+++ b/Generated cooking sessions.xlsx
@@ -40,904 +40,904 @@
     <t>Validity</t>
   </si>
   <si>
-    <t>2924893</t>
-  </si>
-  <si>
-    <t>6211602</t>
-  </si>
-  <si>
-    <t>1022733</t>
-  </si>
-  <si>
-    <t>1701953</t>
-  </si>
-  <si>
-    <t>3297130</t>
-  </si>
-  <si>
-    <t>2675133</t>
-  </si>
-  <si>
-    <t>4041098</t>
-  </si>
-  <si>
-    <t>1970317</t>
-  </si>
-  <si>
-    <t>2207187</t>
-  </si>
-  <si>
-    <t>3061316</t>
-  </si>
-  <si>
-    <t>3021792</t>
-  </si>
-  <si>
-    <t>1697579</t>
-  </si>
-  <si>
-    <t>2670920</t>
-  </si>
-  <si>
-    <t>1387350</t>
-  </si>
-  <si>
-    <t>1210821</t>
-  </si>
-  <si>
-    <t>1336358</t>
-  </si>
-  <si>
-    <t>1351205</t>
-  </si>
-  <si>
-    <t>3891693</t>
-  </si>
-  <si>
-    <t>1691736</t>
-  </si>
-  <si>
-    <t>1954165</t>
-  </si>
-  <si>
-    <t>1514131</t>
-  </si>
-  <si>
-    <t>3837615</t>
-  </si>
-  <si>
-    <t>1486611</t>
-  </si>
-  <si>
-    <t>1303100</t>
-  </si>
-  <si>
-    <t>3072869</t>
-  </si>
-  <si>
-    <t>1911566</t>
-  </si>
-  <si>
-    <t>3804062</t>
-  </si>
-  <si>
-    <t>1677641</t>
-  </si>
-  <si>
-    <t>2089251</t>
-  </si>
-  <si>
-    <t>9241980</t>
-  </si>
-  <si>
-    <t>2019678</t>
-  </si>
-  <si>
-    <t>2132437</t>
-  </si>
-  <si>
-    <t>9442994</t>
-  </si>
-  <si>
-    <t>2699844</t>
-  </si>
-  <si>
-    <t>2945000</t>
-  </si>
-  <si>
-    <t>8361135</t>
-  </si>
-  <si>
-    <t>1913419</t>
-  </si>
-  <si>
-    <t>1167412</t>
-  </si>
-  <si>
-    <t>2376809</t>
-  </si>
-  <si>
-    <t>1246561</t>
-  </si>
-  <si>
-    <t>1564085</t>
-  </si>
-  <si>
-    <t>2450984</t>
-  </si>
-  <si>
-    <t>1886826</t>
-  </si>
-  <si>
-    <t>2844023</t>
-  </si>
-  <si>
-    <t>2366959</t>
-  </si>
-  <si>
-    <t>2308141</t>
-  </si>
-  <si>
-    <t>2458835</t>
-  </si>
-  <si>
-    <t>2222986</t>
-  </si>
-  <si>
-    <t>1212556</t>
-  </si>
-  <si>
-    <t>1787663</t>
-  </si>
-  <si>
-    <t>1903826</t>
-  </si>
-  <si>
-    <t>1461656</t>
-  </si>
-  <si>
-    <t>2089375</t>
-  </si>
-  <si>
-    <t>1275205</t>
-  </si>
-  <si>
-    <t>2005072</t>
-  </si>
-  <si>
-    <t>4907738</t>
-  </si>
-  <si>
-    <t>1288469</t>
-  </si>
-  <si>
-    <t>2633218</t>
-  </si>
-  <si>
-    <t>2880027</t>
-  </si>
-  <si>
-    <t>2869289</t>
-  </si>
-  <si>
-    <t>3137949</t>
-  </si>
-  <si>
-    <t>1390005</t>
-  </si>
-  <si>
-    <t>7148680</t>
-  </si>
-  <si>
-    <t>2482998</t>
-  </si>
-  <si>
-    <t>1225179</t>
-  </si>
-  <si>
-    <t>3176369</t>
-  </si>
-  <si>
-    <t>1043754</t>
-  </si>
-  <si>
-    <t>3329319</t>
-  </si>
-  <si>
-    <t>1849282</t>
-  </si>
-  <si>
-    <t>3025863</t>
-  </si>
-  <si>
-    <t>2887605</t>
-  </si>
-  <si>
-    <t>1497855</t>
-  </si>
-  <si>
-    <t>2460257</t>
-  </si>
-  <si>
-    <t>1725794</t>
-  </si>
-  <si>
-    <t>2508419</t>
-  </si>
-  <si>
-    <t>3382071</t>
-  </si>
-  <si>
-    <t>3171442</t>
-  </si>
-  <si>
-    <t>1202426</t>
-  </si>
-  <si>
-    <t>1109052</t>
-  </si>
-  <si>
-    <t>8333667</t>
-  </si>
-  <si>
-    <t>1282380</t>
-  </si>
-  <si>
-    <t>2609115</t>
-  </si>
-  <si>
-    <t>1744310</t>
-  </si>
-  <si>
-    <t>7136971</t>
-  </si>
-  <si>
-    <t>5626772</t>
-  </si>
-  <si>
-    <t>1286117</t>
-  </si>
-  <si>
-    <t>7135259</t>
-  </si>
-  <si>
-    <t>1160756</t>
-  </si>
-  <si>
-    <t>1645462</t>
-  </si>
-  <si>
-    <t>1833526</t>
-  </si>
-  <si>
-    <t>8860606</t>
-  </si>
-  <si>
-    <t>3216234</t>
-  </si>
-  <si>
-    <t>5243501</t>
-  </si>
-  <si>
-    <t>3355984</t>
-  </si>
-  <si>
-    <t>4303546</t>
-  </si>
-  <si>
-    <t>2417192</t>
-  </si>
-  <si>
-    <t>2670514</t>
-  </si>
-  <si>
-    <t>9425597</t>
-  </si>
-  <si>
-    <t>4268111</t>
-  </si>
-  <si>
-    <t>2639977</t>
-  </si>
-  <si>
-    <t>KE04502572</t>
-  </si>
-  <si>
-    <t>KE09061122</t>
-  </si>
-  <si>
-    <t>KE02613312</t>
-  </si>
-  <si>
-    <t>KE02561046</t>
-  </si>
-  <si>
-    <t>KE08485028</t>
-  </si>
-  <si>
-    <t>KE03303296</t>
-  </si>
-  <si>
-    <t>KE01918522</t>
-  </si>
-  <si>
-    <t>KE01782334</t>
-  </si>
-  <si>
-    <t>KE02302642</t>
-  </si>
-  <si>
-    <t>KE02629739</t>
-  </si>
-  <si>
-    <t>KE01256894</t>
-  </si>
-  <si>
-    <t>KE01319497</t>
-  </si>
-  <si>
-    <t>KE07878309</t>
-  </si>
-  <si>
-    <t>KE08762541</t>
-  </si>
-  <si>
-    <t>KE02547688</t>
-  </si>
-  <si>
-    <t>KE03316891</t>
-  </si>
-  <si>
-    <t>KE03085103</t>
-  </si>
-  <si>
-    <t>KE02726088</t>
-  </si>
-  <si>
-    <t>KE02108013</t>
-  </si>
-  <si>
-    <t>KE01501320</t>
-  </si>
-  <si>
-    <t>KE01352574</t>
-  </si>
-  <si>
-    <t>KE01459290</t>
-  </si>
-  <si>
-    <t>KE02776292</t>
-  </si>
-  <si>
-    <t>KE03802561</t>
-  </si>
-  <si>
-    <t>KE01425223</t>
-  </si>
-  <si>
-    <t>KE03082089</t>
-  </si>
-  <si>
-    <t>KE08066223</t>
-  </si>
-  <si>
-    <t>KE01216959</t>
-  </si>
-  <si>
-    <t>KE04303882</t>
-  </si>
-  <si>
-    <t>KE09536019</t>
-  </si>
-  <si>
-    <t>KE07666582</t>
-  </si>
-  <si>
-    <t>KE02341459</t>
-  </si>
-  <si>
-    <t>KE01840975</t>
-  </si>
-  <si>
-    <t>KE02976710</t>
-  </si>
-  <si>
-    <t>KE02192673</t>
-  </si>
-  <si>
-    <t>KE01806578</t>
-  </si>
-  <si>
-    <t>KE09458241</t>
-  </si>
-  <si>
-    <t>KE02024787</t>
-  </si>
-  <si>
-    <t>KE09729711</t>
-  </si>
-  <si>
-    <t>KE03128705</t>
-  </si>
-  <si>
-    <t>KE04714443</t>
-  </si>
-  <si>
-    <t>KE02312929</t>
-  </si>
-  <si>
-    <t>KE08412755</t>
-  </si>
-  <si>
-    <t>KE01705778</t>
-  </si>
-  <si>
-    <t>KE06955727</t>
-  </si>
-  <si>
-    <t>KE01318100</t>
-  </si>
-  <si>
-    <t>KE01961161</t>
-  </si>
-  <si>
-    <t>KE03136476</t>
-  </si>
-  <si>
-    <t>KE02586538</t>
-  </si>
-  <si>
-    <t>KE02612657</t>
-  </si>
-  <si>
-    <t>KE02620996</t>
-  </si>
-  <si>
-    <t>KE02044959</t>
-  </si>
-  <si>
-    <t>KE09048698</t>
-  </si>
-  <si>
-    <t>KE02617616</t>
-  </si>
-  <si>
-    <t>KE01792074</t>
-  </si>
-  <si>
-    <t>KE02477622</t>
-  </si>
-  <si>
-    <t>KE07113629</t>
-  </si>
-  <si>
-    <t>KE08369116</t>
-  </si>
-  <si>
-    <t>KE03197963</t>
-  </si>
-  <si>
-    <t>KE02239541</t>
-  </si>
-  <si>
-    <t>KE07452487</t>
-  </si>
-  <si>
-    <t>KE03004490</t>
-  </si>
-  <si>
-    <t>KE02773259</t>
-  </si>
-  <si>
-    <t>KE02725782</t>
-  </si>
-  <si>
-    <t>KE01035244</t>
-  </si>
-  <si>
-    <t>KE02628558</t>
-  </si>
-  <si>
-    <t>KE02762800</t>
-  </si>
-  <si>
-    <t>KE03065932</t>
-  </si>
-  <si>
-    <t>KE09415429</t>
-  </si>
-  <si>
-    <t>KE02831595</t>
-  </si>
-  <si>
-    <t>KE02767846</t>
-  </si>
-  <si>
-    <t>KE02871453</t>
-  </si>
-  <si>
-    <t>KE01684336</t>
-  </si>
-  <si>
-    <t>KE08424783</t>
-  </si>
-  <si>
-    <t>KE08661244</t>
-  </si>
-  <si>
-    <t>KE02124463</t>
-  </si>
-  <si>
-    <t>KE02015555</t>
-  </si>
-  <si>
-    <t>KE02765929</t>
-  </si>
-  <si>
-    <t>KE03293738</t>
-  </si>
-  <si>
-    <t>KE03617074</t>
-  </si>
-  <si>
-    <t>KE02548086</t>
-  </si>
-  <si>
-    <t>KE08135618</t>
-  </si>
-  <si>
-    <t>KE01117214</t>
-  </si>
-  <si>
-    <t>KE01320343</t>
-  </si>
-  <si>
-    <t>KE02859908</t>
-  </si>
-  <si>
-    <t>KE01672202</t>
-  </si>
-  <si>
-    <t>KE03323745</t>
-  </si>
-  <si>
-    <t>KE01873763</t>
-  </si>
-  <si>
-    <t>KE01378364</t>
-  </si>
-  <si>
-    <t>KE06752301</t>
-  </si>
-  <si>
-    <t>KE01117390</t>
-  </si>
-  <si>
-    <t>KE03328169</t>
-  </si>
-  <si>
-    <t>KE09275437</t>
-  </si>
-  <si>
-    <t>KE03394091</t>
-  </si>
-  <si>
-    <t>KE02364600</t>
-  </si>
-  <si>
-    <t>KE08975277</t>
-  </si>
-  <si>
-    <t>KE02168187</t>
-  </si>
-  <si>
-    <t>KE02783572</t>
-  </si>
-  <si>
-    <t>KE02463480</t>
-  </si>
-  <si>
-    <t>KE03216430</t>
-  </si>
-  <si>
-    <t>2924893KE045025721707822488</t>
-  </si>
-  <si>
-    <t>6211602KE090611221707822488</t>
-  </si>
-  <si>
-    <t>1022733KE026133121707822488</t>
-  </si>
-  <si>
-    <t>1701953KE025610461707822488</t>
-  </si>
-  <si>
-    <t>3297130KE084850281707822488</t>
-  </si>
-  <si>
-    <t>2675133KE033032961707822488</t>
-  </si>
-  <si>
-    <t>4041098KE019185221707822488</t>
-  </si>
-  <si>
-    <t>1970317KE017823341707822488</t>
-  </si>
-  <si>
-    <t>2207187KE023026421707822488</t>
-  </si>
-  <si>
-    <t>3061316KE026297391707822488</t>
-  </si>
-  <si>
-    <t>3021792KE012568941707822488</t>
-  </si>
-  <si>
-    <t>1697579KE013194971707822488</t>
-  </si>
-  <si>
-    <t>2670920KE078783091707822488</t>
-  </si>
-  <si>
-    <t>1387350KE087625411707822488</t>
-  </si>
-  <si>
-    <t>1210821KE025476881707822488</t>
-  </si>
-  <si>
-    <t>1336358KE033168911707822488</t>
-  </si>
-  <si>
-    <t>1351205KE030851031707822488</t>
-  </si>
-  <si>
-    <t>3891693KE027260881707822488</t>
-  </si>
-  <si>
-    <t>1691736KE021080131707822488</t>
-  </si>
-  <si>
-    <t>1954165KE015013201707822488</t>
-  </si>
-  <si>
-    <t>1514131KE013525741707822488</t>
-  </si>
-  <si>
-    <t>3837615KE014592901707822488</t>
-  </si>
-  <si>
-    <t>1486611KE027762921707822488</t>
-  </si>
-  <si>
-    <t>1303100KE038025611707822488</t>
-  </si>
-  <si>
-    <t>3072869KE014252231707822488</t>
-  </si>
-  <si>
-    <t>1911566KE030820891707822488</t>
-  </si>
-  <si>
-    <t>3804062KE080662231707822488</t>
-  </si>
-  <si>
-    <t>1677641KE012169591707822488</t>
-  </si>
-  <si>
-    <t>2089251KE043038821707822488</t>
-  </si>
-  <si>
-    <t>9241980KE095360191707822488</t>
-  </si>
-  <si>
-    <t>2019678KE076665821707822488</t>
-  </si>
-  <si>
-    <t>2132437KE023414591707822488</t>
-  </si>
-  <si>
-    <t>9442994KE018409751707822488</t>
-  </si>
-  <si>
-    <t>2699844KE029767101707822488</t>
-  </si>
-  <si>
-    <t>2945000KE021926731707822488</t>
-  </si>
-  <si>
-    <t>8361135KE018065781707822488</t>
-  </si>
-  <si>
-    <t>1913419KE094582411707822488</t>
-  </si>
-  <si>
-    <t>1167412KE020247871707822488</t>
-  </si>
-  <si>
-    <t>2376809KE097297111707822488</t>
-  </si>
-  <si>
-    <t>1246561KE031287051707822488</t>
-  </si>
-  <si>
-    <t>1564085KE047144431707822488</t>
-  </si>
-  <si>
-    <t>2450984KE023129291707822488</t>
-  </si>
-  <si>
-    <t>1886826KE084127551707822488</t>
-  </si>
-  <si>
-    <t>2844023KE017057781707822488</t>
-  </si>
-  <si>
-    <t>2366959KE069557271707822488</t>
-  </si>
-  <si>
-    <t>2308141KE013181001707822488</t>
-  </si>
-  <si>
-    <t>2458835KE019611611707822488</t>
-  </si>
-  <si>
-    <t>2222986KE031364761707822488</t>
-  </si>
-  <si>
-    <t>1212556KE025865381707822488</t>
-  </si>
-  <si>
-    <t>1787663KE026126571707822488</t>
-  </si>
-  <si>
-    <t>1903826KE026209961707822488</t>
-  </si>
-  <si>
-    <t>1461656KE020449591707822488</t>
-  </si>
-  <si>
-    <t>2089375KE090486981707822488</t>
-  </si>
-  <si>
-    <t>1275205KE026176161707822488</t>
-  </si>
-  <si>
-    <t>2005072KE017920741707822488</t>
-  </si>
-  <si>
-    <t>4907738KE024776221707822488</t>
-  </si>
-  <si>
-    <t>1288469KE071136291707822488</t>
-  </si>
-  <si>
-    <t>2633218KE083691161707822488</t>
-  </si>
-  <si>
-    <t>2880027KE031979631707822488</t>
-  </si>
-  <si>
-    <t>2869289KE022395411707822488</t>
-  </si>
-  <si>
-    <t>3137949KE074524871707822488</t>
-  </si>
-  <si>
-    <t>1390005KE030044901707822488</t>
-  </si>
-  <si>
-    <t>7148680KE027732591707822488</t>
-  </si>
-  <si>
-    <t>2482998KE027257821707822488</t>
-  </si>
-  <si>
-    <t>1225179KE010352441707822488</t>
-  </si>
-  <si>
-    <t>3176369KE026285581707822488</t>
-  </si>
-  <si>
-    <t>1043754KE027628001707822488</t>
-  </si>
-  <si>
-    <t>3329319KE030659321707822488</t>
-  </si>
-  <si>
-    <t>1849282KE094154291707822488</t>
-  </si>
-  <si>
-    <t>3025863KE028315951707822488</t>
-  </si>
-  <si>
-    <t>2887605KE027678461707822488</t>
-  </si>
-  <si>
-    <t>1497855KE028714531707822488</t>
-  </si>
-  <si>
-    <t>2460257KE016843361707822488</t>
-  </si>
-  <si>
-    <t>1725794KE084247831707822488</t>
-  </si>
-  <si>
-    <t>2508419KE086612441707822488</t>
-  </si>
-  <si>
-    <t>3382071KE021244631707822488</t>
-  </si>
-  <si>
-    <t>3171442KE020155551707822488</t>
-  </si>
-  <si>
-    <t>1202426KE027659291707822488</t>
-  </si>
-  <si>
-    <t>1109052KE032937381707822488</t>
-  </si>
-  <si>
-    <t>8333667KE036170741707822488</t>
-  </si>
-  <si>
-    <t>1282380KE025480861707822488</t>
-  </si>
-  <si>
-    <t>2609115KE081356181707822488</t>
-  </si>
-  <si>
-    <t>1744310KE011172141707822488</t>
-  </si>
-  <si>
-    <t>7136971KE013203431707822488</t>
-  </si>
-  <si>
-    <t>5626772KE028599081707822488</t>
-  </si>
-  <si>
-    <t>1286117KE016722021707822488</t>
-  </si>
-  <si>
-    <t>7135259KE033237451707822488</t>
-  </si>
-  <si>
-    <t>1160756KE018737631707822488</t>
-  </si>
-  <si>
-    <t>1645462KE013783641707822488</t>
-  </si>
-  <si>
-    <t>1833526KE067523011707822488</t>
-  </si>
-  <si>
-    <t>8860606KE011173901707822488</t>
-  </si>
-  <si>
-    <t>3216234KE033281691707822488</t>
-  </si>
-  <si>
-    <t>5243501KE092754371707822488</t>
-  </si>
-  <si>
-    <t>3355984KE033940911707822488</t>
-  </si>
-  <si>
-    <t>4303546KE023646001707822488</t>
-  </si>
-  <si>
-    <t>2417192KE089752771707822488</t>
-  </si>
-  <si>
-    <t>2670514KE021681871707822488</t>
-  </si>
-  <si>
-    <t>9425597KE027835721707822488</t>
-  </si>
-  <si>
-    <t>4268111KE024634801707822488</t>
-  </si>
-  <si>
-    <t>2639977KE032164301707822488</t>
+    <t>2745042</t>
+  </si>
+  <si>
+    <t>2015935</t>
+  </si>
+  <si>
+    <t>2212580</t>
+  </si>
+  <si>
+    <t>1560933</t>
+  </si>
+  <si>
+    <t>2800834</t>
+  </si>
+  <si>
+    <t>1773089</t>
+  </si>
+  <si>
+    <t>1420830</t>
+  </si>
+  <si>
+    <t>3095070</t>
+  </si>
+  <si>
+    <t>3398273</t>
+  </si>
+  <si>
+    <t>1802093</t>
+  </si>
+  <si>
+    <t>8710717</t>
+  </si>
+  <si>
+    <t>2784830</t>
+  </si>
+  <si>
+    <t>3257704</t>
+  </si>
+  <si>
+    <t>2222121</t>
+  </si>
+  <si>
+    <t>2781170</t>
+  </si>
+  <si>
+    <t>1471318</t>
+  </si>
+  <si>
+    <t>1253638</t>
+  </si>
+  <si>
+    <t>2473487</t>
+  </si>
+  <si>
+    <t>3205944</t>
+  </si>
+  <si>
+    <t>1299147</t>
+  </si>
+  <si>
+    <t>1195448</t>
+  </si>
+  <si>
+    <t>1528319</t>
+  </si>
+  <si>
+    <t>3378076</t>
+  </si>
+  <si>
+    <t>3160890</t>
+  </si>
+  <si>
+    <t>1106063</t>
+  </si>
+  <si>
+    <t>1619016</t>
+  </si>
+  <si>
+    <t>2111218</t>
+  </si>
+  <si>
+    <t>1999116</t>
+  </si>
+  <si>
+    <t>6446021</t>
+  </si>
+  <si>
+    <t>2003693</t>
+  </si>
+  <si>
+    <t>1955784</t>
+  </si>
+  <si>
+    <t>1904446</t>
+  </si>
+  <si>
+    <t>3263915</t>
+  </si>
+  <si>
+    <t>2920757</t>
+  </si>
+  <si>
+    <t>2287571</t>
+  </si>
+  <si>
+    <t>1670792</t>
+  </si>
+  <si>
+    <t>3487760</t>
+  </si>
+  <si>
+    <t>2550648</t>
+  </si>
+  <si>
+    <t>1714539</t>
+  </si>
+  <si>
+    <t>1061712</t>
+  </si>
+  <si>
+    <t>6157040</t>
+  </si>
+  <si>
+    <t>2994827</t>
+  </si>
+  <si>
+    <t>2856736</t>
+  </si>
+  <si>
+    <t>2919498</t>
+  </si>
+  <si>
+    <t>1587447</t>
+  </si>
+  <si>
+    <t>1559372</t>
+  </si>
+  <si>
+    <t>3163948</t>
+  </si>
+  <si>
+    <t>3088946</t>
+  </si>
+  <si>
+    <t>1471325</t>
+  </si>
+  <si>
+    <t>1735825</t>
+  </si>
+  <si>
+    <t>2465552</t>
+  </si>
+  <si>
+    <t>2502013</t>
+  </si>
+  <si>
+    <t>4578268</t>
+  </si>
+  <si>
+    <t>3018300</t>
+  </si>
+  <si>
+    <t>1445687</t>
+  </si>
+  <si>
+    <t>3264561</t>
+  </si>
+  <si>
+    <t>1660607</t>
+  </si>
+  <si>
+    <t>3145778</t>
+  </si>
+  <si>
+    <t>5873237</t>
+  </si>
+  <si>
+    <t>3032295</t>
+  </si>
+  <si>
+    <t>2761755</t>
+  </si>
+  <si>
+    <t>1978290</t>
+  </si>
+  <si>
+    <t>2089340</t>
+  </si>
+  <si>
+    <t>5357154</t>
+  </si>
+  <si>
+    <t>3120309</t>
+  </si>
+  <si>
+    <t>2595503</t>
+  </si>
+  <si>
+    <t>1932867</t>
+  </si>
+  <si>
+    <t>2776383</t>
+  </si>
+  <si>
+    <t>3328181</t>
+  </si>
+  <si>
+    <t>3150046</t>
+  </si>
+  <si>
+    <t>1171848</t>
+  </si>
+  <si>
+    <t>1486737</t>
+  </si>
+  <si>
+    <t>1741691</t>
+  </si>
+  <si>
+    <t>1565263</t>
+  </si>
+  <si>
+    <t>1017226</t>
+  </si>
+  <si>
+    <t>1769511</t>
+  </si>
+  <si>
+    <t>3852752</t>
+  </si>
+  <si>
+    <t>4527584</t>
+  </si>
+  <si>
+    <t>1620836</t>
+  </si>
+  <si>
+    <t>2770703</t>
+  </si>
+  <si>
+    <t>2607598</t>
+  </si>
+  <si>
+    <t>1591373</t>
+  </si>
+  <si>
+    <t>9634970</t>
+  </si>
+  <si>
+    <t>2151095</t>
+  </si>
+  <si>
+    <t>2797216</t>
+  </si>
+  <si>
+    <t>2706083</t>
+  </si>
+  <si>
+    <t>3006407</t>
+  </si>
+  <si>
+    <t>2900328</t>
+  </si>
+  <si>
+    <t>4519302</t>
+  </si>
+  <si>
+    <t>2059281</t>
+  </si>
+  <si>
+    <t>1750080</t>
+  </si>
+  <si>
+    <t>4065126</t>
+  </si>
+  <si>
+    <t>3217110</t>
+  </si>
+  <si>
+    <t>2933535</t>
+  </si>
+  <si>
+    <t>4545004</t>
+  </si>
+  <si>
+    <t>1314917</t>
+  </si>
+  <si>
+    <t>2556210</t>
+  </si>
+  <si>
+    <t>3041769</t>
+  </si>
+  <si>
+    <t>3394984</t>
+  </si>
+  <si>
+    <t>2652160</t>
+  </si>
+  <si>
+    <t>KE01610977</t>
+  </si>
+  <si>
+    <t>KE07063688</t>
+  </si>
+  <si>
+    <t>KE03231467</t>
+  </si>
+  <si>
+    <t>KE02109251</t>
+  </si>
+  <si>
+    <t>KE03371299</t>
+  </si>
+  <si>
+    <t>KE03944397</t>
+  </si>
+  <si>
+    <t>KE09911715</t>
+  </si>
+  <si>
+    <t>KE07036905</t>
+  </si>
+  <si>
+    <t>KE02956195</t>
+  </si>
+  <si>
+    <t>KE02827739</t>
+  </si>
+  <si>
+    <t>KE01596876</t>
+  </si>
+  <si>
+    <t>KE01881581</t>
+  </si>
+  <si>
+    <t>KE01752685</t>
+  </si>
+  <si>
+    <t>KE02663153</t>
+  </si>
+  <si>
+    <t>KE08226568</t>
+  </si>
+  <si>
+    <t>KE01041885</t>
+  </si>
+  <si>
+    <t>KE03161999</t>
+  </si>
+  <si>
+    <t>KE02897095</t>
+  </si>
+  <si>
+    <t>KE01724592</t>
+  </si>
+  <si>
+    <t>KE08997283</t>
+  </si>
+  <si>
+    <t>KE01440248</t>
+  </si>
+  <si>
+    <t>KE01184196</t>
+  </si>
+  <si>
+    <t>KE01895116</t>
+  </si>
+  <si>
+    <t>KE02991251</t>
+  </si>
+  <si>
+    <t>KE02540613</t>
+  </si>
+  <si>
+    <t>KE01721521</t>
+  </si>
+  <si>
+    <t>KE01255451</t>
+  </si>
+  <si>
+    <t>KE02568703</t>
+  </si>
+  <si>
+    <t>KE02579041</t>
+  </si>
+  <si>
+    <t>KE01906666</t>
+  </si>
+  <si>
+    <t>KE02935695</t>
+  </si>
+  <si>
+    <t>KE01636433</t>
+  </si>
+  <si>
+    <t>KE03122911</t>
+  </si>
+  <si>
+    <t>KE03165446</t>
+  </si>
+  <si>
+    <t>KE01727256</t>
+  </si>
+  <si>
+    <t>KE04549926</t>
+  </si>
+  <si>
+    <t>KE01955616</t>
+  </si>
+  <si>
+    <t>KE02638646</t>
+  </si>
+  <si>
+    <t>KE04614548</t>
+  </si>
+  <si>
+    <t>KE09933681</t>
+  </si>
+  <si>
+    <t>KE01381204</t>
+  </si>
+  <si>
+    <t>KE03168237</t>
+  </si>
+  <si>
+    <t>KE03027213</t>
+  </si>
+  <si>
+    <t>KE02205513</t>
+  </si>
+  <si>
+    <t>KE02449258</t>
+  </si>
+  <si>
+    <t>KE09105276</t>
+  </si>
+  <si>
+    <t>KE01791032</t>
+  </si>
+  <si>
+    <t>KE03213922</t>
+  </si>
+  <si>
+    <t>KE02267207</t>
+  </si>
+  <si>
+    <t>KE02164702</t>
+  </si>
+  <si>
+    <t>KE03965440</t>
+  </si>
+  <si>
+    <t>KE01219180</t>
+  </si>
+  <si>
+    <t>KE03385730</t>
+  </si>
+  <si>
+    <t>KE02481318</t>
+  </si>
+  <si>
+    <t>KE02437971</t>
+  </si>
+  <si>
+    <t>KE04226365</t>
+  </si>
+  <si>
+    <t>KE01755000</t>
+  </si>
+  <si>
+    <t>KE02444481</t>
+  </si>
+  <si>
+    <t>KE01979631</t>
+  </si>
+  <si>
+    <t>KE07291743</t>
+  </si>
+  <si>
+    <t>KE01539901</t>
+  </si>
+  <si>
+    <t>KE01610978</t>
+  </si>
+  <si>
+    <t>KE02973397</t>
+  </si>
+  <si>
+    <t>KE04796778</t>
+  </si>
+  <si>
+    <t>KE02394348</t>
+  </si>
+  <si>
+    <t>KE02834235</t>
+  </si>
+  <si>
+    <t>KE03248688</t>
+  </si>
+  <si>
+    <t>KE03115530</t>
+  </si>
+  <si>
+    <t>KE03300012</t>
+  </si>
+  <si>
+    <t>KE09891577</t>
+  </si>
+  <si>
+    <t>KE02530036</t>
+  </si>
+  <si>
+    <t>KE03199298</t>
+  </si>
+  <si>
+    <t>KE01708680</t>
+  </si>
+  <si>
+    <t>KE01100333</t>
+  </si>
+  <si>
+    <t>KE06665159</t>
+  </si>
+  <si>
+    <t>KE02951017</t>
+  </si>
+  <si>
+    <t>KE08272123</t>
+  </si>
+  <si>
+    <t>KE05813376</t>
+  </si>
+  <si>
+    <t>KE03256644</t>
+  </si>
+  <si>
+    <t>KE01007738</t>
+  </si>
+  <si>
+    <t>KE03144970</t>
+  </si>
+  <si>
+    <t>KE03267637</t>
+  </si>
+  <si>
+    <t>KE02591989</t>
+  </si>
+  <si>
+    <t>KE02244429</t>
+  </si>
+  <si>
+    <t>KE01016822</t>
+  </si>
+  <si>
+    <t>KE03365461</t>
+  </si>
+  <si>
+    <t>KE01019785</t>
+  </si>
+  <si>
+    <t>KE03274263</t>
+  </si>
+  <si>
+    <t>KE09911946</t>
+  </si>
+  <si>
+    <t>KE03266157</t>
+  </si>
+  <si>
+    <t>KE02754907</t>
+  </si>
+  <si>
+    <t>KE08241250</t>
+  </si>
+  <si>
+    <t>KE02258541</t>
+  </si>
+  <si>
+    <t>KE02407122</t>
+  </si>
+  <si>
+    <t>KE01786857</t>
+  </si>
+  <si>
+    <t>KE01124162</t>
+  </si>
+  <si>
+    <t>KE03317467</t>
+  </si>
+  <si>
+    <t>KE01616166</t>
+  </si>
+  <si>
+    <t>KE03395952</t>
+  </si>
+  <si>
+    <t>KE08081821</t>
+  </si>
+  <si>
+    <t>2745042KE016109771709472457</t>
+  </si>
+  <si>
+    <t>2015935KE070636881709472457</t>
+  </si>
+  <si>
+    <t>2212580KE032314671709472457</t>
+  </si>
+  <si>
+    <t>1560933KE021092511709472457</t>
+  </si>
+  <si>
+    <t>2800834KE033712991709472457</t>
+  </si>
+  <si>
+    <t>1773089KE039443971709472457</t>
+  </si>
+  <si>
+    <t>1420830KE099117151709472457</t>
+  </si>
+  <si>
+    <t>3095070KE070369051709472457</t>
+  </si>
+  <si>
+    <t>3398273KE029561951709472457</t>
+  </si>
+  <si>
+    <t>1802093KE028277391709472457</t>
+  </si>
+  <si>
+    <t>8710717KE015968761709472457</t>
+  </si>
+  <si>
+    <t>2784830KE018815811709472457</t>
+  </si>
+  <si>
+    <t>3257704KE017526851709472457</t>
+  </si>
+  <si>
+    <t>2222121KE026631531709472457</t>
+  </si>
+  <si>
+    <t>2781170KE082265681709472457</t>
+  </si>
+  <si>
+    <t>1471318KE010418851709472457</t>
+  </si>
+  <si>
+    <t>1253638KE031619991709472457</t>
+  </si>
+  <si>
+    <t>2473487KE028970951709472457</t>
+  </si>
+  <si>
+    <t>3205944KE017245921709472457</t>
+  </si>
+  <si>
+    <t>1299147KE089972831709472457</t>
+  </si>
+  <si>
+    <t>1195448KE014402481709472457</t>
+  </si>
+  <si>
+    <t>1528319KE011841961709472457</t>
+  </si>
+  <si>
+    <t>3378076KE018951161709472457</t>
+  </si>
+  <si>
+    <t>3160890KE029912511709472457</t>
+  </si>
+  <si>
+    <t>1106063KE025406131709472457</t>
+  </si>
+  <si>
+    <t>1619016KE017215211709472457</t>
+  </si>
+  <si>
+    <t>2111218KE012554511709472457</t>
+  </si>
+  <si>
+    <t>1999116KE025687031709472457</t>
+  </si>
+  <si>
+    <t>6446021KE025790411709472457</t>
+  </si>
+  <si>
+    <t>2003693KE019066661709472457</t>
+  </si>
+  <si>
+    <t>1955784KE029356951709472457</t>
+  </si>
+  <si>
+    <t>1904446KE016364331709472457</t>
+  </si>
+  <si>
+    <t>3263915KE031229111709472457</t>
+  </si>
+  <si>
+    <t>2920757KE031654461709472457</t>
+  </si>
+  <si>
+    <t>2287571KE017272561709472457</t>
+  </si>
+  <si>
+    <t>1670792KE045499261709472457</t>
+  </si>
+  <si>
+    <t>3487760KE019556161709472457</t>
+  </si>
+  <si>
+    <t>2550648KE026386461709472457</t>
+  </si>
+  <si>
+    <t>1714539KE046145481709472457</t>
+  </si>
+  <si>
+    <t>1061712KE099336811709472457</t>
+  </si>
+  <si>
+    <t>6157040KE013812041709472457</t>
+  </si>
+  <si>
+    <t>2994827KE031682371709472457</t>
+  </si>
+  <si>
+    <t>2856736KE030272131709472457</t>
+  </si>
+  <si>
+    <t>2919498KE022055131709472457</t>
+  </si>
+  <si>
+    <t>1587447KE024492581709472457</t>
+  </si>
+  <si>
+    <t>1559372KE091052761709472457</t>
+  </si>
+  <si>
+    <t>3163948KE017910321709472457</t>
+  </si>
+  <si>
+    <t>3088946KE032139221709472457</t>
+  </si>
+  <si>
+    <t>1471325KE022672071709472457</t>
+  </si>
+  <si>
+    <t>1735825KE021647021709472457</t>
+  </si>
+  <si>
+    <t>2465552KE039654401709472457</t>
+  </si>
+  <si>
+    <t>2502013KE012191801709472457</t>
+  </si>
+  <si>
+    <t>4578268KE033857301709472457</t>
+  </si>
+  <si>
+    <t>3018300KE024813181709472457</t>
+  </si>
+  <si>
+    <t>1445687KE024379711709472457</t>
+  </si>
+  <si>
+    <t>3264561KE042263651709472457</t>
+  </si>
+  <si>
+    <t>1660607KE017550001709472457</t>
+  </si>
+  <si>
+    <t>3145778KE024444811709472457</t>
+  </si>
+  <si>
+    <t>5873237KE019796311709472457</t>
+  </si>
+  <si>
+    <t>3032295KE072917431709472457</t>
+  </si>
+  <si>
+    <t>2761755KE015399011709472457</t>
+  </si>
+  <si>
+    <t>1978290KE016109781709472457</t>
+  </si>
+  <si>
+    <t>2089340KE029733971709472457</t>
+  </si>
+  <si>
+    <t>5357154KE047967781709472457</t>
+  </si>
+  <si>
+    <t>3120309KE023943481709472457</t>
+  </si>
+  <si>
+    <t>2595503KE028342351709472457</t>
+  </si>
+  <si>
+    <t>1932867KE032486881709472457</t>
+  </si>
+  <si>
+    <t>2776383KE031155301709472457</t>
+  </si>
+  <si>
+    <t>3328181KE033000121709472457</t>
+  </si>
+  <si>
+    <t>3150046KE098915771709472457</t>
+  </si>
+  <si>
+    <t>1171848KE025300361709472457</t>
+  </si>
+  <si>
+    <t>1486737KE031992981709472457</t>
+  </si>
+  <si>
+    <t>1741691KE017086801709472457</t>
+  </si>
+  <si>
+    <t>1565263KE011003331709472457</t>
+  </si>
+  <si>
+    <t>1017226KE066651591709472457</t>
+  </si>
+  <si>
+    <t>1769511KE029510171709472457</t>
+  </si>
+  <si>
+    <t>3852752KE082721231709472457</t>
+  </si>
+  <si>
+    <t>4527584KE058133761709472457</t>
+  </si>
+  <si>
+    <t>1620836KE032566441709472457</t>
+  </si>
+  <si>
+    <t>2770703KE010077381709472457</t>
+  </si>
+  <si>
+    <t>2607598KE031449701709472457</t>
+  </si>
+  <si>
+    <t>1591373KE032676371709472457</t>
+  </si>
+  <si>
+    <t>9634970KE025919891709472457</t>
+  </si>
+  <si>
+    <t>2151095KE022444291709472457</t>
+  </si>
+  <si>
+    <t>2797216KE010168221709472457</t>
+  </si>
+  <si>
+    <t>2706083KE033654611709472457</t>
+  </si>
+  <si>
+    <t>3006407KE010197851709472457</t>
+  </si>
+  <si>
+    <t>2900328KE032742631709472457</t>
+  </si>
+  <si>
+    <t>4519302KE099119461709472457</t>
+  </si>
+  <si>
+    <t>2059281KE032661571709472457</t>
+  </si>
+  <si>
+    <t>1750080KE027549071709472457</t>
+  </si>
+  <si>
+    <t>4065126KE082412501709472457</t>
+  </si>
+  <si>
+    <t>3217110KE022585411709472457</t>
+  </si>
+  <si>
+    <t>2933535KE024071221709472457</t>
+  </si>
+  <si>
+    <t>4545004KE017868571709472457</t>
+  </si>
+  <si>
+    <t>1314917KE011241621709472457</t>
+  </si>
+  <si>
+    <t>2556210KE033174671709472457</t>
+  </si>
+  <si>
+    <t>3041769KE016161661709472457</t>
+  </si>
+  <si>
+    <t>3394984KE033959521709472457</t>
+  </si>
+  <si>
+    <t>2652160KE080818211709472457</t>
   </si>
 </sst>
 </file>
@@ -1339,16 +1339,16 @@
         <v>108</v>
       </c>
       <c r="C2">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D2">
-        <v>8197</v>
+        <v>10507</v>
       </c>
       <c r="E2">
-        <v>8197</v>
+        <v>10507</v>
       </c>
       <c r="F2" s="2">
-        <v>45333.58898199553</v>
+        <v>45339.68585228493</v>
       </c>
       <c r="G2" t="s">
         <v>208</v>
@@ -1365,22 +1365,22 @@
         <v>109</v>
       </c>
       <c r="C3">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D3">
-        <v>6077</v>
+        <v>7086</v>
       </c>
       <c r="E3">
-        <v>14274</v>
+        <v>17593</v>
       </c>
       <c r="F3" s="2">
-        <v>45362.58898199553</v>
+        <v>45320.68585228493</v>
       </c>
       <c r="G3" t="s">
         <v>209</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1391,22 +1391,22 @@
         <v>110</v>
       </c>
       <c r="C4">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D4">
-        <v>7361</v>
+        <v>7149</v>
       </c>
       <c r="E4">
-        <v>21635</v>
+        <v>24742</v>
       </c>
       <c r="F4" s="2">
-        <v>45342.58898199553</v>
+        <v>45328.68585228493</v>
       </c>
       <c r="G4" t="s">
         <v>210</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1417,16 +1417,16 @@
         <v>111</v>
       </c>
       <c r="C5">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D5">
-        <v>7380</v>
+        <v>618</v>
       </c>
       <c r="E5">
-        <v>29015</v>
+        <v>25360</v>
       </c>
       <c r="F5" s="2">
-        <v>45350.58898199553</v>
+        <v>45366.68585228493</v>
       </c>
       <c r="G5" t="s">
         <v>211</v>
@@ -1443,22 +1443,22 @@
         <v>112</v>
       </c>
       <c r="C6">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D6">
-        <v>880</v>
+        <v>1453</v>
       </c>
       <c r="E6">
-        <v>29895</v>
+        <v>26813</v>
       </c>
       <c r="F6" s="2">
-        <v>45346.58898199553</v>
+        <v>45325.68585228493</v>
       </c>
       <c r="G6" t="s">
         <v>212</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1469,16 +1469,16 @@
         <v>113</v>
       </c>
       <c r="C7">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D7">
-        <v>11635</v>
+        <v>9466</v>
       </c>
       <c r="E7">
-        <v>41530</v>
+        <v>36279</v>
       </c>
       <c r="F7" s="2">
-        <v>45336.58898199553</v>
+        <v>45354.68585228493</v>
       </c>
       <c r="G7" t="s">
         <v>213</v>
@@ -1495,16 +1495,16 @@
         <v>114</v>
       </c>
       <c r="C8">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D8">
-        <v>6072</v>
+        <v>4875</v>
       </c>
       <c r="E8">
-        <v>47602</v>
+        <v>41154</v>
       </c>
       <c r="F8" s="2">
-        <v>45319.58898199553</v>
+        <v>45356.68585228493</v>
       </c>
       <c r="G8" t="s">
         <v>214</v>
@@ -1521,16 +1521,16 @@
         <v>115</v>
       </c>
       <c r="C9">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D9">
-        <v>1566</v>
+        <v>5047</v>
       </c>
       <c r="E9">
-        <v>49168</v>
+        <v>46201</v>
       </c>
       <c r="F9" s="2">
-        <v>45329.58898199553</v>
+        <v>45338.68585228493</v>
       </c>
       <c r="G9" t="s">
         <v>215</v>
@@ -1547,22 +1547,22 @@
         <v>116</v>
       </c>
       <c r="C10">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D10">
-        <v>6386</v>
+        <v>7101</v>
       </c>
       <c r="E10">
-        <v>55554</v>
+        <v>53302</v>
       </c>
       <c r="F10" s="2">
-        <v>45365.58898199553</v>
+        <v>45320.68585228493</v>
       </c>
       <c r="G10" t="s">
         <v>216</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1573,22 +1573,22 @@
         <v>117</v>
       </c>
       <c r="C11">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D11">
-        <v>2688</v>
+        <v>7399</v>
       </c>
       <c r="E11">
-        <v>58242</v>
+        <v>60701</v>
       </c>
       <c r="F11" s="2">
-        <v>45355.58898199553</v>
+        <v>45328.68585228493</v>
       </c>
       <c r="G11" t="s">
         <v>217</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1599,22 +1599,22 @@
         <v>118</v>
       </c>
       <c r="C12">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D12">
-        <v>3956</v>
+        <v>12774</v>
       </c>
       <c r="E12">
-        <v>62198</v>
+        <v>73475</v>
       </c>
       <c r="F12" s="2">
-        <v>45364.58898199553</v>
+        <v>45351.68585228493</v>
       </c>
       <c r="G12" t="s">
         <v>218</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1625,16 +1625,16 @@
         <v>119</v>
       </c>
       <c r="C13">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D13">
-        <v>9265</v>
+        <v>7209</v>
       </c>
       <c r="E13">
-        <v>71463</v>
+        <v>80684</v>
       </c>
       <c r="F13" s="2">
-        <v>45347.58898199553</v>
+        <v>45369.68585228493</v>
       </c>
       <c r="G13" t="s">
         <v>219</v>
@@ -1651,22 +1651,22 @@
         <v>120</v>
       </c>
       <c r="C14">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D14">
-        <v>7729</v>
+        <v>11345</v>
       </c>
       <c r="E14">
-        <v>79192</v>
+        <v>92029</v>
       </c>
       <c r="F14" s="2">
-        <v>45343.58898199553</v>
+        <v>45354.68585228493</v>
       </c>
       <c r="G14" t="s">
         <v>220</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1677,16 +1677,16 @@
         <v>121</v>
       </c>
       <c r="C15">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D15">
-        <v>4914</v>
+        <v>5417</v>
       </c>
       <c r="E15">
-        <v>84106</v>
+        <v>97446</v>
       </c>
       <c r="F15" s="2">
-        <v>45325.58898199553</v>
+        <v>45345.68585228493</v>
       </c>
       <c r="G15" t="s">
         <v>221</v>
@@ -1703,22 +1703,22 @@
         <v>122</v>
       </c>
       <c r="C16">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D16">
-        <v>12068</v>
+        <v>10164</v>
       </c>
       <c r="E16">
-        <v>96174</v>
+        <v>107610</v>
       </c>
       <c r="F16" s="2">
-        <v>45328.58898199553</v>
+        <v>45366.68585228493</v>
       </c>
       <c r="G16" t="s">
         <v>222</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1729,22 +1729,22 @@
         <v>123</v>
       </c>
       <c r="C17">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D17">
-        <v>1281</v>
+        <v>3935</v>
       </c>
       <c r="E17">
-        <v>97455</v>
+        <v>111545</v>
       </c>
       <c r="F17" s="2">
-        <v>45342.58898199553</v>
+        <v>45338.68585228493</v>
       </c>
       <c r="G17" t="s">
         <v>223</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1755,16 +1755,16 @@
         <v>124</v>
       </c>
       <c r="C18">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D18">
-        <v>8503</v>
+        <v>7852</v>
       </c>
       <c r="E18">
-        <v>105958</v>
+        <v>119397</v>
       </c>
       <c r="F18" s="2">
-        <v>45332.58898199553</v>
+        <v>45338.68585228493</v>
       </c>
       <c r="G18" t="s">
         <v>224</v>
@@ -1781,22 +1781,22 @@
         <v>125</v>
       </c>
       <c r="C19">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D19">
-        <v>9209</v>
+        <v>3209</v>
       </c>
       <c r="E19">
-        <v>115167</v>
+        <v>122606</v>
       </c>
       <c r="F19" s="2">
-        <v>45352.58898199553</v>
+        <v>45324.68585228493</v>
       </c>
       <c r="G19" t="s">
         <v>225</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1807,22 +1807,22 @@
         <v>126</v>
       </c>
       <c r="C20">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D20">
-        <v>12725</v>
+        <v>5806</v>
       </c>
       <c r="E20">
-        <v>127892</v>
+        <v>128412</v>
       </c>
       <c r="F20" s="2">
-        <v>45341.58898199553</v>
+        <v>45353.68585228493</v>
       </c>
       <c r="G20" t="s">
         <v>226</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1833,22 +1833,22 @@
         <v>127</v>
       </c>
       <c r="C21">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D21">
-        <v>3350</v>
+        <v>12376</v>
       </c>
       <c r="E21">
-        <v>131242</v>
+        <v>140788</v>
       </c>
       <c r="F21" s="2">
-        <v>45329.58898199553</v>
+        <v>45365.68585228493</v>
       </c>
       <c r="G21" t="s">
         <v>227</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1859,16 +1859,16 @@
         <v>128</v>
       </c>
       <c r="C22">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D22">
-        <v>4617</v>
+        <v>10993</v>
       </c>
       <c r="E22">
-        <v>135859</v>
+        <v>151781</v>
       </c>
       <c r="F22" s="2">
-        <v>45360.58898199553</v>
+        <v>45360.68585228493</v>
       </c>
       <c r="G22" t="s">
         <v>228</v>
@@ -1885,22 +1885,22 @@
         <v>129</v>
       </c>
       <c r="C23">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D23">
-        <v>11604</v>
+        <v>2344</v>
       </c>
       <c r="E23">
-        <v>147463</v>
+        <v>154125</v>
       </c>
       <c r="F23" s="2">
-        <v>45358.58898199553</v>
+        <v>45326.68585228493</v>
       </c>
       <c r="G23" t="s">
         <v>229</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1911,16 +1911,16 @@
         <v>130</v>
       </c>
       <c r="C24">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D24">
-        <v>10694</v>
+        <v>8289</v>
       </c>
       <c r="E24">
-        <v>158157</v>
+        <v>162414</v>
       </c>
       <c r="F24" s="2">
-        <v>45350.58898199553</v>
+        <v>45362.68585228493</v>
       </c>
       <c r="G24" t="s">
         <v>230</v>
@@ -1937,16 +1937,16 @@
         <v>131</v>
       </c>
       <c r="C25">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D25">
-        <v>2691</v>
+        <v>8937</v>
       </c>
       <c r="E25">
-        <v>160848</v>
+        <v>171351</v>
       </c>
       <c r="F25" s="2">
-        <v>45353.58898199553</v>
+        <v>45365.68585228493</v>
       </c>
       <c r="G25" t="s">
         <v>231</v>
@@ -1963,22 +1963,22 @@
         <v>132</v>
       </c>
       <c r="C26">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D26">
-        <v>2312</v>
+        <v>8848</v>
       </c>
       <c r="E26">
-        <v>163160</v>
+        <v>180199</v>
       </c>
       <c r="F26" s="2">
-        <v>45353.58898199553</v>
+        <v>45324.68585228493</v>
       </c>
       <c r="G26" t="s">
         <v>232</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1989,16 +1989,16 @@
         <v>133</v>
       </c>
       <c r="C27">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D27">
-        <v>5115</v>
+        <v>8471</v>
       </c>
       <c r="E27">
-        <v>168275</v>
+        <v>188670</v>
       </c>
       <c r="F27" s="2">
-        <v>45335.58898199553</v>
+        <v>45324.68585228493</v>
       </c>
       <c r="G27" t="s">
         <v>233</v>
@@ -2015,22 +2015,22 @@
         <v>134</v>
       </c>
       <c r="C28">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D28">
-        <v>12250</v>
+        <v>4034</v>
       </c>
       <c r="E28">
-        <v>180525</v>
+        <v>192704</v>
       </c>
       <c r="F28" s="2">
-        <v>45324.58898199553</v>
+        <v>45363.68585228493</v>
       </c>
       <c r="G28" t="s">
         <v>234</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2041,16 +2041,16 @@
         <v>135</v>
       </c>
       <c r="C29">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D29">
-        <v>7357</v>
+        <v>4345</v>
       </c>
       <c r="E29">
-        <v>187882</v>
+        <v>197049</v>
       </c>
       <c r="F29" s="2">
-        <v>45328.58898199553</v>
+        <v>45340.68585228493</v>
       </c>
       <c r="G29" t="s">
         <v>235</v>
@@ -2067,22 +2067,22 @@
         <v>136</v>
       </c>
       <c r="C30">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D30">
-        <v>9539</v>
+        <v>10728</v>
       </c>
       <c r="E30">
-        <v>197421</v>
+        <v>207777</v>
       </c>
       <c r="F30" s="2">
-        <v>45347.58898199553</v>
+        <v>45340.68585228493</v>
       </c>
       <c r="G30" t="s">
         <v>236</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2093,22 +2093,22 @@
         <v>137</v>
       </c>
       <c r="C31">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D31">
-        <v>4327</v>
+        <v>2300</v>
       </c>
       <c r="E31">
-        <v>201748</v>
+        <v>210077</v>
       </c>
       <c r="F31" s="2">
-        <v>45357.58898199553</v>
+        <v>45330.68585228493</v>
       </c>
       <c r="G31" t="s">
         <v>237</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2119,16 +2119,16 @@
         <v>138</v>
       </c>
       <c r="C32">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D32">
-        <v>11576</v>
+        <v>2088</v>
       </c>
       <c r="E32">
-        <v>213324</v>
+        <v>212165</v>
       </c>
       <c r="F32" s="2">
-        <v>45317.58898199553</v>
+        <v>45342.68585228493</v>
       </c>
       <c r="G32" t="s">
         <v>238</v>
@@ -2145,16 +2145,16 @@
         <v>139</v>
       </c>
       <c r="C33">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D33">
-        <v>6388</v>
+        <v>4325</v>
       </c>
       <c r="E33">
-        <v>219712</v>
+        <v>216490</v>
       </c>
       <c r="F33" s="2">
-        <v>45337.58898199553</v>
+        <v>45338.68585228493</v>
       </c>
       <c r="G33" t="s">
         <v>239</v>
@@ -2171,16 +2171,16 @@
         <v>140</v>
       </c>
       <c r="C34">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D34">
-        <v>5346</v>
+        <v>5502</v>
       </c>
       <c r="E34">
-        <v>225058</v>
+        <v>221992</v>
       </c>
       <c r="F34" s="2">
-        <v>45334.58898199553</v>
+        <v>45346.68585228493</v>
       </c>
       <c r="G34" t="s">
         <v>240</v>
@@ -2197,16 +2197,16 @@
         <v>141</v>
       </c>
       <c r="C35">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D35">
-        <v>903</v>
+        <v>6012</v>
       </c>
       <c r="E35">
-        <v>225961</v>
+        <v>228004</v>
       </c>
       <c r="F35" s="2">
-        <v>45357.58898199553</v>
+        <v>45367.68585228493</v>
       </c>
       <c r="G35" t="s">
         <v>241</v>
@@ -2223,16 +2223,16 @@
         <v>142</v>
       </c>
       <c r="C36">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D36">
-        <v>8351</v>
+        <v>6633</v>
       </c>
       <c r="E36">
-        <v>234312</v>
+        <v>234637</v>
       </c>
       <c r="F36" s="2">
-        <v>45326.58898199553</v>
+        <v>45353.68585228493</v>
       </c>
       <c r="G36" t="s">
         <v>242</v>
@@ -2249,16 +2249,16 @@
         <v>143</v>
       </c>
       <c r="C37">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D37">
-        <v>3200</v>
+        <v>6610</v>
       </c>
       <c r="E37">
-        <v>237512</v>
+        <v>241247</v>
       </c>
       <c r="F37" s="2">
-        <v>45319.58898199553</v>
+        <v>45340.68585228493</v>
       </c>
       <c r="G37" t="s">
         <v>243</v>
@@ -2275,22 +2275,22 @@
         <v>144</v>
       </c>
       <c r="C38">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D38">
-        <v>5130</v>
+        <v>133</v>
       </c>
       <c r="E38">
-        <v>242642</v>
+        <v>241380</v>
       </c>
       <c r="F38" s="2">
-        <v>45353.58898199553</v>
+        <v>45346.68585228493</v>
       </c>
       <c r="G38" t="s">
         <v>244</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2301,22 +2301,22 @@
         <v>145</v>
       </c>
       <c r="C39">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D39">
-        <v>7631</v>
+        <v>12907</v>
       </c>
       <c r="E39">
-        <v>250273</v>
+        <v>254287</v>
       </c>
       <c r="F39" s="2">
-        <v>45348.58898199553</v>
+        <v>45355.68585228493</v>
       </c>
       <c r="G39" t="s">
         <v>245</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2327,22 +2327,22 @@
         <v>146</v>
       </c>
       <c r="C40">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D40">
-        <v>6926</v>
+        <v>2175</v>
       </c>
       <c r="E40">
-        <v>257199</v>
+        <v>256462</v>
       </c>
       <c r="F40" s="2">
-        <v>45345.58898199553</v>
+        <v>45348.68585228493</v>
       </c>
       <c r="G40" t="s">
         <v>246</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2353,16 +2353,16 @@
         <v>147</v>
       </c>
       <c r="C41">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D41">
-        <v>8693</v>
+        <v>11232</v>
       </c>
       <c r="E41">
-        <v>265892</v>
+        <v>267694</v>
       </c>
       <c r="F41" s="2">
-        <v>45335.58898199553</v>
+        <v>45344.68585228493</v>
       </c>
       <c r="G41" t="s">
         <v>247</v>
@@ -2379,22 +2379,22 @@
         <v>148</v>
       </c>
       <c r="C42">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D42">
-        <v>8270</v>
+        <v>11450</v>
       </c>
       <c r="E42">
-        <v>274162</v>
+        <v>279144</v>
       </c>
       <c r="F42" s="2">
-        <v>45360.58898199553</v>
+        <v>45336.68585228493</v>
       </c>
       <c r="G42" t="s">
         <v>248</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2405,22 +2405,22 @@
         <v>149</v>
       </c>
       <c r="C43">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D43">
-        <v>203</v>
+        <v>4322</v>
       </c>
       <c r="E43">
-        <v>274365</v>
+        <v>283466</v>
       </c>
       <c r="F43" s="2">
-        <v>45365.58898199553</v>
+        <v>45331.68585228493</v>
       </c>
       <c r="G43" t="s">
         <v>249</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2431,22 +2431,22 @@
         <v>150</v>
       </c>
       <c r="C44">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D44">
-        <v>8506</v>
+        <v>11642</v>
       </c>
       <c r="E44">
-        <v>282871</v>
+        <v>295108</v>
       </c>
       <c r="F44" s="2">
-        <v>45352.58898199553</v>
+        <v>45352.68585228493</v>
       </c>
       <c r="G44" t="s">
         <v>250</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2457,16 +2457,16 @@
         <v>151</v>
       </c>
       <c r="C45">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D45">
-        <v>10381</v>
+        <v>8820</v>
       </c>
       <c r="E45">
-        <v>293252</v>
+        <v>303928</v>
       </c>
       <c r="F45" s="2">
-        <v>45331.58898199553</v>
+        <v>45338.68585228493</v>
       </c>
       <c r="G45" t="s">
         <v>251</v>
@@ -2483,22 +2483,22 @@
         <v>152</v>
       </c>
       <c r="C46">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D46">
-        <v>797</v>
+        <v>2305</v>
       </c>
       <c r="E46">
-        <v>294049</v>
+        <v>306233</v>
       </c>
       <c r="F46" s="2">
-        <v>45339.58898199553</v>
+        <v>45342.68585228493</v>
       </c>
       <c r="G46" t="s">
         <v>252</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2509,16 +2509,16 @@
         <v>153</v>
       </c>
       <c r="C47">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D47">
-        <v>1210</v>
+        <v>7857</v>
       </c>
       <c r="E47">
-        <v>295259</v>
+        <v>314090</v>
       </c>
       <c r="F47" s="2">
-        <v>45330.58898199553</v>
+        <v>45355.68585228493</v>
       </c>
       <c r="G47" t="s">
         <v>253</v>
@@ -2535,22 +2535,22 @@
         <v>154</v>
       </c>
       <c r="C48">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D48">
-        <v>9363</v>
+        <v>7776</v>
       </c>
       <c r="E48">
-        <v>304622</v>
+        <v>321866</v>
       </c>
       <c r="F48" s="2">
-        <v>45362.58898199553</v>
+        <v>45353.68585228493</v>
       </c>
       <c r="G48" t="s">
         <v>254</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2561,16 +2561,16 @@
         <v>155</v>
       </c>
       <c r="C49">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D49">
-        <v>3720</v>
+        <v>3545</v>
       </c>
       <c r="E49">
-        <v>308342</v>
+        <v>325411</v>
       </c>
       <c r="F49" s="2">
-        <v>45335.58898199553</v>
+        <v>45342.68585228493</v>
       </c>
       <c r="G49" t="s">
         <v>255</v>
@@ -2587,16 +2587,16 @@
         <v>156</v>
       </c>
       <c r="C50">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D50">
-        <v>4026</v>
+        <v>7019</v>
       </c>
       <c r="E50">
-        <v>312368</v>
+        <v>332430</v>
       </c>
       <c r="F50" s="2">
-        <v>45330.58898199553</v>
+        <v>45329.68585228493</v>
       </c>
       <c r="G50" t="s">
         <v>256</v>
@@ -2613,16 +2613,16 @@
         <v>157</v>
       </c>
       <c r="C51">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D51">
-        <v>5354</v>
+        <v>3270</v>
       </c>
       <c r="E51">
-        <v>317722</v>
+        <v>335700</v>
       </c>
       <c r="F51" s="2">
-        <v>45324.58898199553</v>
+        <v>45321.68585228493</v>
       </c>
       <c r="G51" t="s">
         <v>257</v>
@@ -2639,22 +2639,22 @@
         <v>158</v>
       </c>
       <c r="C52">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D52">
-        <v>3355</v>
+        <v>8967</v>
       </c>
       <c r="E52">
-        <v>321077</v>
+        <v>344667</v>
       </c>
       <c r="F52" s="2">
-        <v>45360.58898199553</v>
+        <v>45345.68585228493</v>
       </c>
       <c r="G52" t="s">
         <v>258</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2665,22 +2665,22 @@
         <v>159</v>
       </c>
       <c r="C53">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D53">
-        <v>713</v>
+        <v>11215</v>
       </c>
       <c r="E53">
-        <v>321790</v>
+        <v>355882</v>
       </c>
       <c r="F53" s="2">
-        <v>45352.58898199553</v>
+        <v>45328.68585228493</v>
       </c>
       <c r="G53" t="s">
         <v>259</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2691,22 +2691,22 @@
         <v>160</v>
       </c>
       <c r="C54">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D54">
-        <v>5150</v>
+        <v>6665</v>
       </c>
       <c r="E54">
-        <v>326940</v>
+        <v>362547</v>
       </c>
       <c r="F54" s="2">
-        <v>45351.58898199553</v>
+        <v>45323.68585228493</v>
       </c>
       <c r="G54" t="s">
         <v>260</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2717,16 +2717,16 @@
         <v>161</v>
       </c>
       <c r="C55">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D55">
-        <v>816</v>
+        <v>5482</v>
       </c>
       <c r="E55">
-        <v>327756</v>
+        <v>368029</v>
       </c>
       <c r="F55" s="2">
-        <v>45320.58898199553</v>
+        <v>45323.68585228493</v>
       </c>
       <c r="G55" t="s">
         <v>261</v>
@@ -2743,16 +2743,16 @@
         <v>162</v>
       </c>
       <c r="C56">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D56">
-        <v>10930</v>
+        <v>4963</v>
       </c>
       <c r="E56">
-        <v>338686</v>
+        <v>372992</v>
       </c>
       <c r="F56" s="2">
-        <v>45344.58898199553</v>
+        <v>45360.68585228493</v>
       </c>
       <c r="G56" t="s">
         <v>262</v>
@@ -2769,16 +2769,16 @@
         <v>163</v>
       </c>
       <c r="C57">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D57">
-        <v>10441</v>
+        <v>11246</v>
       </c>
       <c r="E57">
-        <v>349127</v>
+        <v>384238</v>
       </c>
       <c r="F57" s="2">
-        <v>45330.58898199553</v>
+        <v>45320.68585228493</v>
       </c>
       <c r="G57" t="s">
         <v>263</v>
@@ -2795,22 +2795,22 @@
         <v>164</v>
       </c>
       <c r="C58">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D58">
-        <v>10358</v>
+        <v>7142</v>
       </c>
       <c r="E58">
-        <v>359485</v>
+        <v>391380</v>
       </c>
       <c r="F58" s="2">
-        <v>45346.58898199553</v>
+        <v>45349.68585228493</v>
       </c>
       <c r="G58" t="s">
         <v>264</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2821,16 +2821,16 @@
         <v>165</v>
       </c>
       <c r="C59">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D59">
-        <v>9386</v>
+        <v>11982</v>
       </c>
       <c r="E59">
-        <v>368871</v>
+        <v>403362</v>
       </c>
       <c r="F59" s="2">
-        <v>45337.58898199553</v>
+        <v>45349.68585228493</v>
       </c>
       <c r="G59" t="s">
         <v>265</v>
@@ -2847,22 +2847,22 @@
         <v>166</v>
       </c>
       <c r="C60">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D60">
-        <v>1043</v>
+        <v>4326</v>
       </c>
       <c r="E60">
-        <v>369914</v>
+        <v>407688</v>
       </c>
       <c r="F60" s="2">
-        <v>45361.58898199553</v>
+        <v>45346.68585228493</v>
       </c>
       <c r="G60" t="s">
         <v>266</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2873,16 +2873,16 @@
         <v>167</v>
       </c>
       <c r="C61">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D61">
-        <v>3328</v>
+        <v>5453</v>
       </c>
       <c r="E61">
-        <v>373242</v>
+        <v>413141</v>
       </c>
       <c r="F61" s="2">
-        <v>45321.58898199553</v>
+        <v>45356.68585228493</v>
       </c>
       <c r="G61" t="s">
         <v>267</v>
@@ -2899,16 +2899,16 @@
         <v>168</v>
       </c>
       <c r="C62">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D62">
-        <v>7788</v>
+        <v>8096</v>
       </c>
       <c r="E62">
-        <v>381030</v>
+        <v>421237</v>
       </c>
       <c r="F62" s="2">
-        <v>45338.58898199553</v>
+        <v>45353.68585228493</v>
       </c>
       <c r="G62" t="s">
         <v>268</v>
@@ -2925,22 +2925,22 @@
         <v>169</v>
       </c>
       <c r="C63">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D63">
-        <v>5517</v>
+        <v>7402</v>
       </c>
       <c r="E63">
-        <v>386547</v>
+        <v>428639</v>
       </c>
       <c r="F63" s="2">
-        <v>45353.58898199553</v>
+        <v>45337.68585228493</v>
       </c>
       <c r="G63" t="s">
         <v>269</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2951,22 +2951,22 @@
         <v>170</v>
       </c>
       <c r="C64">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D64">
-        <v>159</v>
+        <v>10707</v>
       </c>
       <c r="E64">
-        <v>386706</v>
+        <v>439346</v>
       </c>
       <c r="F64" s="2">
-        <v>45336.58898199553</v>
+        <v>45358.68585228493</v>
       </c>
       <c r="G64" t="s">
         <v>270</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2977,22 +2977,22 @@
         <v>171</v>
       </c>
       <c r="C65">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D65">
-        <v>4963</v>
+        <v>3955</v>
       </c>
       <c r="E65">
-        <v>391669</v>
+        <v>443301</v>
       </c>
       <c r="F65" s="2">
-        <v>45361.58898199553</v>
+        <v>45340.68585228493</v>
       </c>
       <c r="G65" t="s">
         <v>271</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3003,22 +3003,22 @@
         <v>172</v>
       </c>
       <c r="C66">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D66">
-        <v>10203</v>
+        <v>12962</v>
       </c>
       <c r="E66">
-        <v>401872</v>
+        <v>456263</v>
       </c>
       <c r="F66" s="2">
-        <v>45350.58898199553</v>
+        <v>45323.68585228493</v>
       </c>
       <c r="G66" t="s">
         <v>272</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3029,16 +3029,16 @@
         <v>173</v>
       </c>
       <c r="C67">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D67">
-        <v>332</v>
+        <v>5103</v>
       </c>
       <c r="E67">
-        <v>402204</v>
+        <v>461366</v>
       </c>
       <c r="F67" s="2">
-        <v>45329.58898199553</v>
+        <v>45330.68585228493</v>
       </c>
       <c r="G67" t="s">
         <v>273</v>
@@ -3055,22 +3055,22 @@
         <v>174</v>
       </c>
       <c r="C68">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D68">
-        <v>2225</v>
+        <v>1328</v>
       </c>
       <c r="E68">
-        <v>404429</v>
+        <v>462694</v>
       </c>
       <c r="F68" s="2">
-        <v>45351.58898199553</v>
+        <v>45336.68585228493</v>
       </c>
       <c r="G68" t="s">
         <v>274</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3081,22 +3081,22 @@
         <v>175</v>
       </c>
       <c r="C69">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D69">
-        <v>1205</v>
+        <v>8961</v>
       </c>
       <c r="E69">
-        <v>405634</v>
+        <v>471655</v>
       </c>
       <c r="F69" s="2">
-        <v>45358.58898199553</v>
+        <v>45352.68585228493</v>
       </c>
       <c r="G69" t="s">
         <v>275</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3107,22 +3107,22 @@
         <v>176</v>
       </c>
       <c r="C70">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D70">
-        <v>229</v>
+        <v>9908</v>
       </c>
       <c r="E70">
-        <v>405863</v>
+        <v>481563</v>
       </c>
       <c r="F70" s="2">
-        <v>45346.58898199553</v>
+        <v>45353.68585228493</v>
       </c>
       <c r="G70" t="s">
         <v>276</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3133,22 +3133,22 @@
         <v>177</v>
       </c>
       <c r="C71">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D71">
-        <v>184</v>
+        <v>1229</v>
       </c>
       <c r="E71">
-        <v>406047</v>
+        <v>482792</v>
       </c>
       <c r="F71" s="2">
-        <v>45357.58898199553</v>
+        <v>45325.68585228493</v>
       </c>
       <c r="G71" t="s">
         <v>277</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3159,22 +3159,22 @@
         <v>178</v>
       </c>
       <c r="C72">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D72">
-        <v>8475</v>
+        <v>2268</v>
       </c>
       <c r="E72">
-        <v>414522</v>
+        <v>485060</v>
       </c>
       <c r="F72" s="2">
-        <v>45320.58898199553</v>
+        <v>45366.68585228493</v>
       </c>
       <c r="G72" t="s">
         <v>278</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3185,22 +3185,22 @@
         <v>179</v>
       </c>
       <c r="C73">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D73">
-        <v>12807</v>
+        <v>12683</v>
       </c>
       <c r="E73">
-        <v>427329</v>
+        <v>497743</v>
       </c>
       <c r="F73" s="2">
-        <v>45332.58898199553</v>
+        <v>45369.68585228493</v>
       </c>
       <c r="G73" t="s">
         <v>279</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3211,22 +3211,22 @@
         <v>180</v>
       </c>
       <c r="C74">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D74">
-        <v>2411</v>
+        <v>6068</v>
       </c>
       <c r="E74">
-        <v>429740</v>
+        <v>503811</v>
       </c>
       <c r="F74" s="2">
-        <v>45361.58898199553</v>
+        <v>45327.68585228493</v>
       </c>
       <c r="G74" t="s">
         <v>280</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3237,22 +3237,22 @@
         <v>181</v>
       </c>
       <c r="C75">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D75">
-        <v>8522</v>
+        <v>10099</v>
       </c>
       <c r="E75">
-        <v>438262</v>
+        <v>513910</v>
       </c>
       <c r="F75" s="2">
-        <v>45328.58898199553</v>
+        <v>45364.68585228493</v>
       </c>
       <c r="G75" t="s">
         <v>281</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3263,16 +3263,16 @@
         <v>182</v>
       </c>
       <c r="C76">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D76">
-        <v>8856</v>
+        <v>1843</v>
       </c>
       <c r="E76">
-        <v>447118</v>
+        <v>515753</v>
       </c>
       <c r="F76" s="2">
-        <v>45331.58898199553</v>
+        <v>45340.68585228493</v>
       </c>
       <c r="G76" t="s">
         <v>282</v>
@@ -3289,22 +3289,22 @@
         <v>183</v>
       </c>
       <c r="C77">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D77">
-        <v>10784</v>
+        <v>1227</v>
       </c>
       <c r="E77">
-        <v>457902</v>
+        <v>516980</v>
       </c>
       <c r="F77" s="2">
-        <v>45329.58898199553</v>
+        <v>45359.68585228493</v>
       </c>
       <c r="G77" t="s">
         <v>283</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3315,22 +3315,22 @@
         <v>184</v>
       </c>
       <c r="C78">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D78">
-        <v>3191</v>
+        <v>10357</v>
       </c>
       <c r="E78">
-        <v>461093</v>
+        <v>527337</v>
       </c>
       <c r="F78" s="2">
-        <v>45358.58898199553</v>
+        <v>45344.68585228493</v>
       </c>
       <c r="G78" t="s">
         <v>284</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3341,22 +3341,22 @@
         <v>185</v>
       </c>
       <c r="C79">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D79">
-        <v>12302</v>
+        <v>6459</v>
       </c>
       <c r="E79">
-        <v>473395</v>
+        <v>533796</v>
       </c>
       <c r="F79" s="2">
-        <v>45341.58898199553</v>
+        <v>45350.68585228493</v>
       </c>
       <c r="G79" t="s">
         <v>285</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3367,16 +3367,16 @@
         <v>186</v>
       </c>
       <c r="C80">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D80">
-        <v>6301</v>
+        <v>5226</v>
       </c>
       <c r="E80">
-        <v>479696</v>
+        <v>539022</v>
       </c>
       <c r="F80" s="2">
-        <v>45361.58898199553</v>
+        <v>45363.68585228493</v>
       </c>
       <c r="G80" t="s">
         <v>286</v>
@@ -3393,16 +3393,16 @@
         <v>187</v>
       </c>
       <c r="C81">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D81">
-        <v>3683</v>
+        <v>1595</v>
       </c>
       <c r="E81">
-        <v>483379</v>
+        <v>540617</v>
       </c>
       <c r="F81" s="2">
-        <v>45323.58898199553</v>
+        <v>45324.68585228493</v>
       </c>
       <c r="G81" t="s">
         <v>287</v>
@@ -3419,22 +3419,22 @@
         <v>188</v>
       </c>
       <c r="C82">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D82">
-        <v>7877</v>
+        <v>11919</v>
       </c>
       <c r="E82">
-        <v>491256</v>
+        <v>552536</v>
       </c>
       <c r="F82" s="2">
-        <v>45348.58898199553</v>
+        <v>45330.68585228493</v>
       </c>
       <c r="G82" t="s">
         <v>288</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3445,22 +3445,22 @@
         <v>189</v>
       </c>
       <c r="C83">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D83">
-        <v>5794</v>
+        <v>4585</v>
       </c>
       <c r="E83">
-        <v>497050</v>
+        <v>557121</v>
       </c>
       <c r="F83" s="2">
-        <v>45355.58898199553</v>
+        <v>45330.68585228493</v>
       </c>
       <c r="G83" t="s">
         <v>289</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3471,22 +3471,22 @@
         <v>190</v>
       </c>
       <c r="C84">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D84">
-        <v>6554</v>
+        <v>8081</v>
       </c>
       <c r="E84">
-        <v>503604</v>
+        <v>565202</v>
       </c>
       <c r="F84" s="2">
-        <v>45337.58898199553</v>
+        <v>45365.68585228493</v>
       </c>
       <c r="G84" t="s">
         <v>290</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3497,16 +3497,16 @@
         <v>191</v>
       </c>
       <c r="C85">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D85">
-        <v>11938</v>
+        <v>2204</v>
       </c>
       <c r="E85">
-        <v>515542</v>
+        <v>567406</v>
       </c>
       <c r="F85" s="2">
-        <v>45329.58898199553</v>
+        <v>45334.68585228493</v>
       </c>
       <c r="G85" t="s">
         <v>291</v>
@@ -3523,16 +3523,16 @@
         <v>192</v>
       </c>
       <c r="C86">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D86">
-        <v>11135</v>
+        <v>12577</v>
       </c>
       <c r="E86">
-        <v>526677</v>
+        <v>579983</v>
       </c>
       <c r="F86" s="2">
-        <v>45354.58898199553</v>
+        <v>45363.68585228493</v>
       </c>
       <c r="G86" t="s">
         <v>292</v>
@@ -3549,22 +3549,22 @@
         <v>193</v>
       </c>
       <c r="C87">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D87">
-        <v>11269</v>
+        <v>4402</v>
       </c>
       <c r="E87">
-        <v>537946</v>
+        <v>584385</v>
       </c>
       <c r="F87" s="2">
-        <v>45339.58898199553</v>
+        <v>45351.68585228493</v>
       </c>
       <c r="G87" t="s">
         <v>293</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3575,16 +3575,16 @@
         <v>194</v>
       </c>
       <c r="C88">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D88">
-        <v>5816</v>
+        <v>10046</v>
       </c>
       <c r="E88">
-        <v>543762</v>
+        <v>594431</v>
       </c>
       <c r="F88" s="2">
-        <v>45318.58898199553</v>
+        <v>45329.68585228493</v>
       </c>
       <c r="G88" t="s">
         <v>294</v>
@@ -3601,22 +3601,22 @@
         <v>195</v>
       </c>
       <c r="C89">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D89">
-        <v>6052</v>
+        <v>8993</v>
       </c>
       <c r="E89">
-        <v>549814</v>
+        <v>603424</v>
       </c>
       <c r="F89" s="2">
-        <v>45365.58898199553</v>
+        <v>45339.68585228493</v>
       </c>
       <c r="G89" t="s">
         <v>295</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3627,16 +3627,16 @@
         <v>196</v>
       </c>
       <c r="C90">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D90">
-        <v>10242</v>
+        <v>6732</v>
       </c>
       <c r="E90">
-        <v>560056</v>
+        <v>610156</v>
       </c>
       <c r="F90" s="2">
-        <v>45344.58898199553</v>
+        <v>45365.68585228493</v>
       </c>
       <c r="G90" t="s">
         <v>296</v>
@@ -3653,22 +3653,22 @@
         <v>197</v>
       </c>
       <c r="C91">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D91">
-        <v>3230</v>
+        <v>6771</v>
       </c>
       <c r="E91">
-        <v>563286</v>
+        <v>616927</v>
       </c>
       <c r="F91" s="2">
-        <v>45351.58898199553</v>
+        <v>45332.68585228493</v>
       </c>
       <c r="G91" t="s">
         <v>297</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3679,16 +3679,16 @@
         <v>198</v>
       </c>
       <c r="C92">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D92">
-        <v>4166</v>
+        <v>8254</v>
       </c>
       <c r="E92">
-        <v>567452</v>
+        <v>625181</v>
       </c>
       <c r="F92" s="2">
-        <v>45326.58898199553</v>
+        <v>45343.68585228493</v>
       </c>
       <c r="G92" t="s">
         <v>298</v>
@@ -3705,22 +3705,22 @@
         <v>199</v>
       </c>
       <c r="C93">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D93">
-        <v>764</v>
+        <v>451</v>
       </c>
       <c r="E93">
-        <v>568216</v>
+        <v>625632</v>
       </c>
       <c r="F93" s="2">
-        <v>45339.58898199553</v>
+        <v>45321.68585228493</v>
       </c>
       <c r="G93" t="s">
         <v>299</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3731,22 +3731,22 @@
         <v>200</v>
       </c>
       <c r="C94">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D94">
-        <v>11379</v>
+        <v>3719</v>
       </c>
       <c r="E94">
-        <v>579595</v>
+        <v>629351</v>
       </c>
       <c r="F94" s="2">
-        <v>45335.58898199553</v>
+        <v>45362.68585228493</v>
       </c>
       <c r="G94" t="s">
         <v>300</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3757,22 +3757,22 @@
         <v>201</v>
       </c>
       <c r="C95">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D95">
-        <v>7950</v>
+        <v>6752</v>
       </c>
       <c r="E95">
-        <v>587545</v>
+        <v>636103</v>
       </c>
       <c r="F95" s="2">
-        <v>45352.58898199553</v>
+        <v>45342.68585228493</v>
       </c>
       <c r="G95" t="s">
         <v>301</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3783,22 +3783,22 @@
         <v>202</v>
       </c>
       <c r="C96">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D96">
-        <v>7447</v>
+        <v>12600</v>
       </c>
       <c r="E96">
-        <v>594992</v>
+        <v>648703</v>
       </c>
       <c r="F96" s="2">
-        <v>45348.58898199553</v>
+        <v>45320.68585228493</v>
       </c>
       <c r="G96" t="s">
         <v>302</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3809,22 +3809,22 @@
         <v>203</v>
       </c>
       <c r="C97">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D97">
-        <v>274</v>
+        <v>584</v>
       </c>
       <c r="E97">
-        <v>595266</v>
+        <v>649287</v>
       </c>
       <c r="F97" s="2">
-        <v>45343.58898199553</v>
+        <v>45353.68585228493</v>
       </c>
       <c r="G97" t="s">
         <v>303</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3835,22 +3835,22 @@
         <v>204</v>
       </c>
       <c r="C98">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D98">
-        <v>11268</v>
+        <v>6513</v>
       </c>
       <c r="E98">
-        <v>606534</v>
+        <v>655800</v>
       </c>
       <c r="F98" s="2">
-        <v>45348.58898199553</v>
+        <v>45354.68585228493</v>
       </c>
       <c r="G98" t="s">
         <v>304</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3861,22 +3861,22 @@
         <v>205</v>
       </c>
       <c r="C99">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D99">
-        <v>9041</v>
+        <v>2647</v>
       </c>
       <c r="E99">
-        <v>615575</v>
+        <v>658447</v>
       </c>
       <c r="F99" s="2">
-        <v>45339.58898199553</v>
+        <v>45320.68585228493</v>
       </c>
       <c r="G99" t="s">
         <v>305</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3887,16 +3887,16 @@
         <v>206</v>
       </c>
       <c r="C100">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D100">
-        <v>100</v>
+        <v>8001</v>
       </c>
       <c r="E100">
-        <v>615675</v>
+        <v>666448</v>
       </c>
       <c r="F100" s="2">
-        <v>45333.58898199553</v>
+        <v>45342.68585228493</v>
       </c>
       <c r="G100" t="s">
         <v>306</v>
@@ -3913,22 +3913,22 @@
         <v>207</v>
       </c>
       <c r="C101">
-        <v>1707822488.044414</v>
+        <v>1709472457.637418</v>
       </c>
       <c r="D101">
-        <v>7718</v>
+        <v>3014</v>
       </c>
       <c r="E101">
-        <v>623393</v>
+        <v>669462</v>
       </c>
       <c r="F101" s="2">
-        <v>45340.58898199553</v>
+        <v>45356.68585228493</v>
       </c>
       <c r="G101" t="s">
         <v>307</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
